--- a/4/4 pryzmat.xlsx
+++ b/4/4 pryzmat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Fizyka-laby\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3828F154-985F-4864-84F9-3E2B15E16964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936AAE63-1373-468A-8E90-919F464C3E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
   <si>
     <t>a)</t>
   </si>
@@ -173,9 +173,6 @@
     <t>61,0(11)°</t>
   </si>
   <si>
-    <t>48,92(68)°</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -217,22 +214,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">wspolczynnik załamania </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">współczynnik załamania </t>
     </r>
     <r>
@@ -280,13 +261,32 @@
     <t>48,92(68)</t>
   </si>
   <si>
-    <t>propagacja niepw</t>
-  </si>
-  <si>
-    <t>wspolczynnik zalamania</t>
-  </si>
-  <si>
     <t>k*u(z prop)</t>
+  </si>
+  <si>
+    <t>u(n)</t>
+  </si>
+  <si>
+    <t>Zapis n</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wynik końcowy wspolczynnik załamania </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>48,91(67)°</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -397,6 +397,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,8 +475,8 @@
       <xdr:rowOff>178110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>319465</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>531946</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>104836</xdr:rowOff>
     </xdr:to>
@@ -513,8 +519,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>176567</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>389048</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>4975</xdr:rowOff>
     </xdr:to>
@@ -689,8 +695,8 @@
       <xdr:rowOff>87924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>51163</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3251563</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>126136</xdr:rowOff>
     </xdr:to>
@@ -1306,20 +1312,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48" customWidth="1"/>
+    <col min="13" max="13" width="55.28515625" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1578,6 +1584,12 @@
       <c r="J11" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="M11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
@@ -1592,6 +1604,12 @@
       <c r="J12" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -1644,17 +1662,17 @@
         <v>33</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>1.27</v>
@@ -1662,10 +1680,10 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="E21" s="11">
         <v>0.57999999999999996</v>
@@ -1676,23 +1694,23 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="11">
         <v>0.22</v>
@@ -1741,41 +1759,58 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="13:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="9:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="M39" s="12" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N39" s="12">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="13:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="M40" s="12" t="s">
-        <v>45</v>
+    <row r="40" spans="9:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="13:14" ht="28.5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="9:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="M44" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N44" s="12">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="45" spans="13:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="M45" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1783,14 +1818,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389479C9-C890-444F-AA5A-BA71984B6A46}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
@@ -2026,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -2035,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>15</v>
@@ -2046,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3">
         <f>AVERAGE(H3:H7)</f>
@@ -2056,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J10" s="3">
         <f>AVERAGE(M3:M4)</f>
@@ -2065,14 +2100,14 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3">
         <f>STDEVA(H3:H7)</f>
         <v>1.969912575612317</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" s="3">
         <f>STDEVA(M3:M4)</f>
@@ -2141,26 +2176,26 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <f>SIN((E10+J10)/2)/SIN(E10/2)</f>
@@ -2169,12 +2204,12 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21">
+        <v>53</v>
+      </c>
+      <c r="E21" s="3">
         <f>SQRT((H27*E14)^2+(H21*J14)^2)</f>
         <v>0.58084653922563823</v>
       </c>
@@ -2185,29 +2220,29 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>56</v>
+      <c r="E24" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25">
+        <v>43</v>
+      </c>
+      <c r="D25" s="16">
         <f>ABS(D18-1.5)</f>
         <v>0.22264847070729288</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="16">
         <f>2*E21</f>
         <v>1.1616930784512765</v>
       </c>
